--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\doors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WACV-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E80366-4B70-4545-98BB-938E4170947A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF8750-ABE9-4A06-8E99-FC5E24139CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5625" windowWidth="20730" windowHeight="11160" xr2:uid="{3C4D96C8-C524-46F4-9C47-C4EAFA547B4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C4D96C8-C524-46F4-9C47-C4EAFA547B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -74,27 +74,9 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>opened_door</t>
-  </si>
-  <si>
-    <t>closed_door</t>
-  </si>
-  <si>
-    <t>elevator_door</t>
-  </si>
-  <si>
-    <t>ascending_stair</t>
-  </si>
-  <si>
-    <t>descending_stair</t>
-  </si>
-  <si>
     <t>Mobilenet</t>
   </si>
   <si>
-    <t>mAP</t>
-  </si>
-  <si>
     <t>Yolo</t>
   </si>
   <si>
@@ -105,6 +87,24 @@
   </si>
   <si>
     <t>DSD Test Evaluate</t>
+  </si>
+  <si>
+    <t>mAP Total</t>
+  </si>
+  <si>
+    <t>Opened Door</t>
+  </si>
+  <si>
+    <t>Closed Door</t>
+  </si>
+  <si>
+    <t>Elevator Door</t>
+  </si>
+  <si>
+    <t>Ascending Stair</t>
+  </si>
+  <si>
+    <t>Descending Stair</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -225,6 +225,1195 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AP and mAP results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Faster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$J$5:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Opened Door</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed Door</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elevator Door</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ascending Stair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Descending Stair</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mAP Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2482376930122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26229342130486799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77640316940439702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79821418378488496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47126207993352598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51128210948797503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3B2-478F-AD08-B725387A6BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$J$5:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Opened Door</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed Door</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elevator Door</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ascending Stair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Descending Stair</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mAP Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32573738589096002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51064433969087397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74578851379725197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95148116854608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63541109929367601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63381250144376799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3B2-478F-AD08-B725387A6BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mobilenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$J$5:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Opened Door</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed Door</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elevator Door</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ascending Stair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Descending Stair</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mAP Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.232462851405208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21877305914627199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77779367835603497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93689947647904603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64436487713823898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56205878850496005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3B2-478F-AD08-B725387A6BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yolo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$J$5:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Opened Door</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed Door</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elevator Door</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ascending Stair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Descending Stair</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mAP Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$5:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.43409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57879999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3B2-478F-AD08-B725387A6BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="523678952"/>
+        <c:axId val="523680592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="523678952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523680592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523680592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523678952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC30B74-07CE-4FCA-93BD-ABB2069873CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,7 +1716,7 @@
   <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +1732,10 @@
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
@@ -575,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
@@ -599,7 +1788,7 @@
         <v>567</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K5" s="5">
         <v>0.2482376930122</v>
@@ -632,7 +1821,7 @@
         <v>591</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5">
         <v>0.26229342130486799</v>
@@ -665,7 +1854,7 @@
         <v>767</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K7" s="5">
         <v>0.77640316940439702</v>
@@ -698,7 +1887,7 @@
         <v>2247</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K8" s="5">
         <v>0.79821418378488496</v>
@@ -731,7 +1920,7 @@
         <v>670</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K9" s="5">
         <v>0.47126207993352598</v>
@@ -748,7 +1937,7 @@
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <f>SUM(D5:D9)</f>
@@ -767,7 +1956,7 @@
         <v>4842</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="9">
         <v>0.51128210948797503</v>
@@ -809,5 +1998,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>